--- a/08_Habitabilidad/08 Habitabilidad.xlsx
+++ b/08_Habitabilidad/08 Habitabilidad.xlsx
@@ -1,27 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCCS\01_Dmine\08_Habitabilidad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6480"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Plantilla" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Ej. Aire" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="Referencias" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="Parámetros disponibles" sheetId="4" r:id="rId6"/>
+    <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Ej. Aire" sheetId="2" r:id="rId2"/>
+    <sheet name="Referencias" sheetId="3" r:id="rId3"/>
+    <sheet name="Parámetros disponibles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B4">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Agua: AG
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Agua: AG
 Aire: AI
 Uso de Suelo: US
 Industria: IN
@@ -31,55 +45,112 @@
 Bienes y Servicios Ambientales: BS
 Habitabilidad: HA
 Residuos Sólidos Urbanos: RE</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B13">
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F13">
+    <comment ref="F13" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="L13">
+    <comment ref="L13" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Cada indicador se construye a partir de uno o varios parámetros. 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Cada indicador se construye a partir de uno o varios parámetros. 
 Para asginar el nombre:
 Clave.número consecutivo
 Ej. AI.01, AI.02, AI.03, AI.n</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N13">
+    <comment ref="N13" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Consultor6:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Consultor6:
 Método de cálculo del indicador.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G14">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H14">
+    <comment ref="H14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información
 Año más reciente disponible,.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="V14">
+    <comment ref="V14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">¿Cómo se asgina la calificación?</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>¿Cómo se asgina la calificación?</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B18">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Alejandra Xóchitl Cruz Bayer:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Alejandra Xóchitl Cruz Bayer:
 Yo quitaría este parámetro y su indicador </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -87,14 +158,20 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B5">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Agua: AG
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Agua: AG
 Aire: AI
 Uso de Suelo: US
 Industria: IN
@@ -104,51 +181,108 @@
 Bienes y Servicios Ambientales: BS
 Habitabilidad: HA
 Residuos Sólidos Urbanos: RE</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B14">
+    <comment ref="B14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F14">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K14">
+    <comment ref="K14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Indicador: parámetro o un valor derivado de varios parámetros que apunta o provee mayor información sobre la dimensión  que el parámetro por sí solo. 
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Indicador: parámetro o un valor derivado de varios parámetros que apunta o provee mayor información sobre la dimensión  que el parámetro por sí solo. 
 Clave.número consecutivo
 Ej. AI.01, AI.02, AI.03, AI.n</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="M14">
+    <comment ref="M14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Método de cálculo del indicador a partir de los parámetros descritos.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Método de cálculo del indicador a partir de los parámetros descritos.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="N14">
+    <comment ref="N14" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir fuente de justificación. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Incluir fuente de justificación. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G15">
+    <comment ref="G15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra por localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H15">
+    <comment ref="H15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información y último periodo (por ejemplo, año) disponible.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información y último periodo (por ejemplo, año) disponible.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="U15">
+    <comment ref="U15" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propuesta de cómo se asgina la calificación.</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propuesta de cómo se asgina la calificación.</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -156,32 +290,60 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B4">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Propiedad que puede ser medida u observada</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Propiedad que puede ser medida u observada</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="F4">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Fuente oficial
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Fuente oficial
 Autores
 Publicación 
 Liga para descarga de datos o consulta</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="G5">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Detalllar si el parámetro se encuentra pro localidad, ciudad, entidad, etc. </t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Detalllar si el parámetro se encuentra pro localidad, ciudad, entidad, etc. </t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="H5">
+    <comment ref="H5" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Incluir periodicidad de actualización de información</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Incluir periodicidad de actualización de información</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -244,21 +406,22 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Estado que guarda el aire </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>atmosférico en el entorno en función de contaminantes con efectos negativos e</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>n la salud humana. De acuerdo con la Organización Mundial de la Salud (2014), la contaminación de la atmósfera representa un grave riesgo medioambiental en todos los países.</t>
     </r>
@@ -368,22 +531,23 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t>Se refiere a la concentración de las partículas suspendidas con diámetro aerodinámico igual o inferior a los 10 µm (PM10) medida en microgramos por metro cúbico (μg/m</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>).
 Las partículas suspendidas representan el material respirable presente en la atmósfera en forma sólida o líquida (polvo, cenizas, hollín, partículas metálicas, cemento y polen, entre otras). De acuerdo con su tamaño se pueden dividir en dos grupos principales: las de diámetro aerodinámico igual o inferior a los 10 µm (PM10) y las de fracción respirable más pequeña (PM2.5). Surgen de fuentes naturales (sal de los océanos o cenizas volcánicas) y antropogénicas generadas, principalmente, por las industrias y los vehículos (SEMARNAT, 2013).</t>
@@ -469,7 +633,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">La evidencia sobre material particulado en el aire y su impacto en la salud pública consistentemente muestra efectos negativos para la salud en las exposiciones que experimentan actualmente las poblaciones urbanas tanto de los países desarrollados como en desarrollo. El material particulado plantea un problema para la salud porque se puede inhalar y
 así acumularse en el sistema respiratorio.  
 Por esta razón, se considera que la distribución de días con calidad del aire buena, regular y mala, es un buen indicativo para calificar la sustentabilidad de una ciudad bajo la dimensión de Aire.
@@ -477,8 +640,9 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 Fuente: NOM-025-SSA1-2014</t>
@@ -655,7 +819,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">El indicador se obtiene de la siguiente manera: 
 (Número de centros educativos que cuentan con energías renovables)/ (El número total de centros educativos) X100
 Fórmula del cálculo: 
@@ -665,9 +828,10 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>HA01=P0801/P0811
 P0801= Fuente principal de energías renovables en centros de educación básica y especial
@@ -708,7 +872,6 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">El indicador se obtiene de la siguiente manera: 
 (Número de centros educativos que cuentan con planes de proteccion civil)/ (El número total de centros educativos) X100
 Fórmula del cálculo: 
@@ -717,10 +880,11 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="10.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 HA02=P0802/P0811
@@ -759,17 +923,17 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">El indicador se obtiene de la siguiente manera: 
  (Número de albergues )/ (números de habitantes)
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t>HA03= (P0803/P0001)*1000
 P0803= Centros educativos que son considerados como albergues en caso de desastre 
@@ -787,22 +951,23 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t>Conflictos relacionados</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <color rgb="FFFF0000"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> por r</t>
     </r>
     <r>
       <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="9.0"/>
+        <family val="2"/>
       </rPr>
       <t>uido</t>
     </r>
@@ -868,15 +1033,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Se determina realizando un conteo a nivel ciudad para cada categoría de atención médica: 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>1=MUY MALAS; 2=MALAS; 3=REGULARES; 4=BUENAS; 5=MUY BUENAS;
  HA05=P0806 
@@ -924,15 +1089,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Se determina al calcular el promedio de tiempo de espera por una consulta médica por ciudad
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="Calibri"/>
-        <b/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>HA06=P0805 
 P0805= Tiempo de espera para recibir una consulta médica</t>
@@ -989,16 +1154,16 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Se determina ponderando la percepción de inseguridad y la tasa de homicidios por cada cien mil habitantes. 
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t>HA07=[.3*(1-P0807]+[.7*[(100-((P0808/P0001)*100,000))/100]
 P0807= Percepción de inseguridad
@@ -1052,36 +1217,38 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">
 Se determina a través de la ponderación de 3 subindicadores:
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">HA08=[1/3(1-P0038)]+[1/3(1-P0809)]+[1/3(1-P0810)]
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P0038= Coeficiente de Gini
 P0809= Porcentaje de la población en situación de pobreza
@@ -1090,9 +1257,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1299,101 +1467,138 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="18.0"/>
+      <sz val="18"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="16.0"/>
+      <sz val="16"/>
       <color rgb="FF70AD47"/>
-      <name val="Soberana sans"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color rgb="FF70AD47"/>
-      <name val="Soberana sans"/>
+      <name val="Soberana Sans"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="16.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibr"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1401,7 +1606,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1441,27 +1646,39 @@
     </fill>
   </fills>
   <borders count="22">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1471,6 +1688,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1485,111 +1703,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <right/>
-      <top/>
-      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1602,6 +1716,67 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1614,286 +1789,384 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="101">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="13" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="17" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -1907,9 +2180,15 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>1733550</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1926,12 +2205,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="-69850" lvl="0">
+          <a:pPr lvl="0" indent="-69850">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1959,7 +2238,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr indent="-69850" lvl="0">
+          <a:pPr lvl="0" indent="-69850">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -1967,9 +2246,6 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1989,9 +2265,15 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>1543050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvPr id="5" name="Shape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2008,12 +2290,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="45700" lIns="91425" rIns="91425" wrap="square" tIns="45700">
+        <a:bodyPr wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="-69850" lvl="0">
+          <a:pPr lvl="0" indent="-69850">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2041,7 +2323,7 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr indent="-69850" lvl="0">
+          <a:pPr lvl="0" indent="-69850">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2049,20 +2331,66 @@
             <a:buFont typeface="Arial"/>
             <a:buNone/>
           </a:pPr>
-          <a:r>
-            <a:t/>
-          </a:r>
           <a:endParaRPr sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2333625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3082" name="Text Box 10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A0C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -2076,9 +2404,15 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1771650</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2095,12 +2429,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="0" lIns="0" rIns="0" wrap="square" tIns="0">
+        <a:bodyPr wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="-69850" lvl="0">
+          <a:pPr lvl="0" indent="-69850">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -2112,7 +2446,7 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1100" b="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -2128,1409 +2462,1826 @@
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1034" name="Text Box 10" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2053" name="Text Box 5" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="11.57"/>
-    <col customWidth="1" min="3" max="3" width="20.29"/>
-    <col customWidth="1" min="4" max="4" width="20.71"/>
-    <col customWidth="1" min="5" max="5" width="22.29"/>
-    <col customWidth="1" min="6" max="6" width="26.14"/>
-    <col customWidth="1" min="7" max="7" width="23.29"/>
-    <col customWidth="1" min="8" max="8" width="25.43"/>
-    <col customWidth="1" min="9" max="9" width="28.43"/>
-    <col customWidth="1" min="10" max="10" width="18.29"/>
-    <col customWidth="1" min="11" max="12" width="26.14"/>
-    <col customWidth="1" min="13" max="13" width="34.29"/>
-    <col customWidth="1" min="14" max="14" width="54.86"/>
-    <col customWidth="1" min="15" max="15" width="36.29"/>
-    <col customWidth="1" min="16" max="17" width="15.71"/>
-    <col customWidth="1" min="18" max="18" width="18.29"/>
-    <col customWidth="1" min="19" max="21" width="15.71"/>
-    <col customWidth="1" min="22" max="22" width="64.29"/>
-    <col customWidth="1" min="23" max="23" width="40.71"/>
-    <col customWidth="1" min="24" max="26" width="10.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="12" width="26.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.28515625" customWidth="1"/>
+    <col min="14" max="14" width="54.85546875" customWidth="1"/>
+    <col min="15" max="15" width="36.28515625" customWidth="1"/>
+    <col min="16" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="21" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="64.28515625" customWidth="1"/>
+    <col min="23" max="23" width="40.7109375" customWidth="1"/>
+    <col min="24" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="14" t="s">
+    <row r="1" spans="1:26" ht="28.5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="18.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" ht="21.0" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="21" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-    </row>
-    <row r="5" ht="73.5" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="18" t="s">
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="73.5" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-    </row>
-    <row r="6" ht="69.0" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-    </row>
-    <row r="7" ht="8.25" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-    </row>
-    <row r="8" ht="76.5" hidden="1" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-    </row>
-    <row r="9" ht="135.75" hidden="1" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-    </row>
-    <row r="12" ht="21.0" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="34" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="69" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="8.25" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="76.5" hidden="1" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="135.75" hidden="1" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="21" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="36" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="41" t="s">
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row r="13" spans="1:26" ht="18.75">
+      <c r="A13" s="4"/>
+      <c r="B13" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="47" t="s">
+      <c r="E13" s="62"/>
+      <c r="F13" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="47" t="s">
+      <c r="H13" s="55"/>
+      <c r="I13" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="47" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="47" t="s">
+      <c r="M13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="47" t="s">
+      <c r="N13" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="O13" s="47" t="s">
+      <c r="O13" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="Q13" s="54" t="s">
+      <c r="Q13" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="R13" s="46" t="s">
+      <c r="R13" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="30" t="s">
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="57" t="s">
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row r="14" spans="1:26" ht="18.75">
+      <c r="A14" s="4"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="28"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="16" t="s">
+      <c r="I14" s="70"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="8" t="s">
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-    </row>
-    <row r="15" ht="243.75" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="W14" s="70"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row r="15" spans="1:26" ht="243.75" customHeight="1">
+      <c r="A15" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="63" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="64" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="67" t="s">
+      <c r="J15" s="4"/>
+      <c r="K15" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="70" t="s">
+      <c r="L15" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="M15" s="64" t="s">
+      <c r="M15" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="O15" s="66" t="s">
+      <c r="O15" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="P15" s="72" t="s">
+      <c r="P15" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="73" t="s">
+      <c r="Q15" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="R15" s="72"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="61" t="s">
+      <c r="R15" s="31"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+    </row>
+    <row r="16" spans="1:26" ht="216.75">
+      <c r="A16" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="78" t="s">
         <v>130</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="64" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="64" t="s">
+      <c r="I16" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="67" t="s">
+      <c r="J16" s="4"/>
+      <c r="K16" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="M16" s="64" t="s">
+      <c r="M16" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="O16" s="64" t="s">
+      <c r="O16" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="P16" s="72" t="s">
+      <c r="P16" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="Q16" s="73" t="s">
+      <c r="Q16" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="65"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="65"/>
-    </row>
-    <row r="17" ht="155.25" customHeight="1">
-      <c r="A17" s="61" t="s">
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+    </row>
+    <row r="17" spans="1:26" ht="155.25" customHeight="1">
+      <c r="A17" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="63" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="81" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="64" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="67" t="s">
+      <c r="J17" s="4"/>
+      <c r="K17" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="L17" s="70" t="s">
+      <c r="L17" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="N17" s="64" t="s">
+      <c r="N17" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="O17" s="64" t="s">
+      <c r="O17" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="P17" s="64" t="s">
+      <c r="P17" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="Q17" s="73" t="s">
+      <c r="Q17" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="65"/>
-      <c r="Y17" s="65"/>
-      <c r="Z17" s="65"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="74" t="s">
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+    </row>
+    <row r="18" spans="1:26" ht="228">
+      <c r="A18" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="77" t="s">
+      <c r="E18" s="55"/>
+      <c r="F18" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="G18" s="78" t="s">
+      <c r="G18" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="I18" s="77" t="s">
+      <c r="I18" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="67" t="s">
+      <c r="J18" s="4"/>
+      <c r="K18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="M18" s="77" t="s">
+      <c r="M18" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="N18" s="80" t="s">
+      <c r="N18" s="37" t="s">
         <v>158</v>
       </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="Q18" s="81" t="s">
+      <c r="Q18" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="61" t="s">
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="39"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" spans="1:26" ht="135">
+      <c r="A19" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="43" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="84" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="67" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="L19" s="85" t="s">
+      <c r="L19" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="M19" s="52" t="s">
+      <c r="M19" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="O19" s="52" t="s">
+      <c r="O19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="P19" s="52" t="s">
+      <c r="P19" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="Q19" s="52" t="s">
+      <c r="Q19" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="R19" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52" t="s">
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="V19" s="52" t="s">
+      <c r="V19" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="W19" s="52"/>
-      <c r="X19" s="65"/>
-      <c r="Y19" s="65"/>
-      <c r="Z19" s="65"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="61" t="s">
+      <c r="W19" s="17"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" spans="1:26" ht="90">
+      <c r="A20" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="84" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I20" s="86" t="s">
+      <c r="I20" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="67" t="s">
+      <c r="J20" s="4"/>
+      <c r="K20" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="L20" s="85" t="s">
+      <c r="L20" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="52" t="s">
+      <c r="M20" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="87" t="s">
+      <c r="N20" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="O20" s="52" t="s">
+      <c r="O20" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="P20" s="52" t="s">
+      <c r="P20" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="Q20" s="52" t="s">
+      <c r="Q20" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="R20" s="52" t="s">
+      <c r="R20" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="S20" s="52" t="s">
+      <c r="S20" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52" t="s">
+      <c r="T20" s="17"/>
+      <c r="U20" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="V20" s="52" t="s">
+      <c r="V20" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="W20" s="52"/>
-      <c r="X20" s="65"/>
-      <c r="Y20" s="65"/>
-      <c r="Z20" s="65"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="61" t="s">
+      <c r="W20" s="17"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+    </row>
+    <row r="21" spans="1:26" ht="165">
+      <c r="A21" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="55"/>
+      <c r="D21" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="45" t="s">
+      <c r="E21" s="55"/>
+      <c r="F21" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="52" t="s">
+      <c r="H21" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="48" t="s">
+      <c r="I21" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="67" t="s">
+      <c r="J21" s="4"/>
+      <c r="K21" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="L21" s="85" t="s">
+      <c r="L21" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="M21" s="48" t="s">
+      <c r="M21" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="N21" s="56" t="s">
+      <c r="N21" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48" t="s">
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="V21" s="48" t="s">
+      <c r="V21" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="W21" s="11"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="61" t="s">
+      <c r="W21" s="8"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+    </row>
+    <row r="22" spans="1:26" ht="165">
+      <c r="A22" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="55" t="s">
+      <c r="E22" s="55"/>
+      <c r="F22" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="H22" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="I22" s="88" t="s">
+      <c r="I22" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="67" t="s">
+      <c r="J22" s="4"/>
+      <c r="K22" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="89" t="s">
+      <c r="L22" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="M22" s="48" t="s">
+      <c r="M22" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="O22" s="52" t="s">
+      <c r="O22" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="R22" s="55" t="s">
+      <c r="R22" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="S22" s="88"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="55" t="s">
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="V22" s="90" t="s">
+      <c r="V22" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="W22" s="55"/>
-      <c r="X22" s="65"/>
-      <c r="Y22" s="65"/>
-      <c r="Z22" s="65"/>
-    </row>
-    <row r="23" ht="150.0" customHeight="1">
-      <c r="A23" s="61" t="s">
+      <c r="W22" s="18"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+    </row>
+    <row r="23" spans="1:26" ht="150" customHeight="1">
+      <c r="A23" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="42" t="s">
+      <c r="C23" s="55"/>
+      <c r="D23" s="72" t="s">
         <v>220</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="91" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G23" s="92" t="s">
+      <c r="G23" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H23" s="92" t="s">
+      <c r="H23" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="94" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="L23" s="95" t="s">
+      <c r="L23" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="M23" s="48" t="s">
+      <c r="M23" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="N23" s="48" t="s">
+      <c r="N23" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="O23" s="52" t="s">
+      <c r="O23" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="P23" s="48" t="s">
+      <c r="P23" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="Q23" s="48" t="s">
+      <c r="Q23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="S23" s="48" t="s">
+      <c r="S23" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="T23" s="48" t="s">
+      <c r="T23" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="U23" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="V23" s="48" t="s">
+      <c r="V23" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="W23" s="11"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-    </row>
-    <row r="24" ht="165.0" customHeight="1">
-      <c r="A24" s="61" t="s">
+      <c r="W23" s="8"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+    </row>
+    <row r="24" spans="1:26" ht="165" customHeight="1">
+      <c r="A24" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="72" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="55"/>
+      <c r="D24" s="72" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="91" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="G24" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="I24" s="93" t="s">
+      <c r="I24" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="94" t="s">
+      <c r="J24" s="4"/>
+      <c r="K24" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="L24" s="95" t="s">
+      <c r="L24" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="M24" s="55" t="s">
+      <c r="M24" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="N24" s="55" t="s">
+      <c r="N24" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="O24" s="52" t="s">
+      <c r="O24" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="P24" s="88" t="s">
+      <c r="P24" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="Q24" s="88" t="s">
+      <c r="Q24" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="R24" s="55" t="s">
+      <c r="R24" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="S24" s="55" t="s">
+      <c r="S24" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="T24" s="55" t="s">
+      <c r="T24" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="U24" s="88"/>
-      <c r="V24" s="55" t="s">
+      <c r="U24" s="45"/>
+      <c r="V24" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="W24" s="88"/>
-      <c r="X24" s="65"/>
-      <c r="Y24" s="65"/>
-      <c r="Z24" s="65"/>
-    </row>
-    <row r="25" ht="63.75" customHeight="1">
-      <c r="A25" s="61" t="s">
+      <c r="W24" s="45"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+    </row>
+    <row r="25" spans="1:26" ht="63.75" customHeight="1">
+      <c r="A25" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="71" t="s">
         <v>249</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="53" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-    </row>
-    <row r="26" ht="42.0" customHeight="1">
-      <c r="A26" s="61" t="s">
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+    </row>
+    <row r="26" spans="1:26" ht="42" customHeight="1">
+      <c r="A26" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="71" t="s">
         <v>254</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="55"/>
+      <c r="D26" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-    </row>
-    <row r="27" ht="102.0" customHeight="1">
-      <c r="A27" s="96" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+    </row>
+    <row r="27" spans="1:26" ht="102" customHeight="1">
+      <c r="A27" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="73" t="s">
         <v>258</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="97" t="s">
+      <c r="C27" s="62"/>
+      <c r="D27" s="73" t="s">
         <v>259</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="91" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="G27" s="98" t="s">
+      <c r="G27" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="92">
-        <v>2010.0</v>
-      </c>
-      <c r="I27" s="92" t="s">
+      <c r="H27" s="49">
+        <v>2010</v>
+      </c>
+      <c r="I27" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-    </row>
-    <row r="28" ht="102.0" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="98" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" ht="102" customHeight="1">
+      <c r="A28" s="75"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="G28" s="98" t="s">
+      <c r="G28" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="H28" s="92">
-        <v>2014.0</v>
-      </c>
-      <c r="I28" s="92" t="s">
+      <c r="H28" s="49">
+        <v>2014</v>
+      </c>
+      <c r="I28" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-    </row>
-    <row r="29" ht="102.0" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="91" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="102" customHeight="1">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="G29" s="92" t="s">
+      <c r="G29" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="92" t="s">
+      <c r="H29" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I29" s="92" t="s">
+      <c r="I29" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="61" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="75">
+      <c r="A30" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="71" t="s">
         <v>268</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="55"/>
+      <c r="D30" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="48" t="s">
+      <c r="H30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="48" t="s">
+      <c r="I30" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="61" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="165.75">
+      <c r="A31" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="64" t="s">
+      <c r="C31" s="55"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="92" t="s">
+      <c r="G31" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="H31" s="92" t="s">
+      <c r="H31" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="I31" s="93" t="s">
+      <c r="I31" s="50" t="s">
         <v>272</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H9"/>
-    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D27:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="B27:C29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="M13:M14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B27:C29"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B13:C14"/>
     <mergeCell ref="B16:C16"/>
@@ -3539,480 +4290,480 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H9"/>
+    <mergeCell ref="I13:I14"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D27:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:V27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="8" width="40.71"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="6.71"/>
-    <col customWidth="1" min="11" max="11" width="15.71"/>
-    <col customWidth="1" min="12" max="12" width="20.71"/>
-    <col customWidth="1" min="13" max="14" width="40.71"/>
-    <col customWidth="1" min="15" max="20" width="15.71"/>
-    <col customWidth="1" min="21" max="21" width="60.71"/>
-    <col customWidth="1" min="22" max="22" width="40.71"/>
-    <col customWidth="1" min="23" max="26" width="10.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="14" width="40.7109375" customWidth="1"/>
+    <col min="15" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="21" width="60.7109375" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" customWidth="1"/>
+    <col min="23" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="15" t="s">
+    <row r="1" spans="2:22" ht="28.5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="4" spans="2:22" ht="23.25">
+      <c r="B4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" ht="21.0" customHeight="1">
-      <c r="B5" s="8" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="2:22" ht="21" customHeight="1">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="B6" s="17" t="s">
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="2:22" ht="18.75" customHeight="1">
+      <c r="B6" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="H7" s="26"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="H9" s="26"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="13" ht="21.0" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+    </row>
+    <row r="7" spans="2:22" ht="15" customHeight="1">
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
+    </row>
+    <row r="8" spans="2:22" ht="15" customHeight="1">
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="65"/>
+    </row>
+    <row r="9" spans="2:22" ht="15" customHeight="1">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+    </row>
+    <row r="11" spans="2:22">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="13" spans="2:22" ht="21" customHeight="1">
+      <c r="B13" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
-      <c r="K13" s="15" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="55"/>
+      <c r="K13" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="35"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="27" t="s">
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="98"/>
+    </row>
+    <row r="14" spans="2:22" ht="18.75">
+      <c r="B14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="62"/>
+      <c r="F14" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="30" t="s">
+      <c r="H14" s="55"/>
+      <c r="I14" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="30" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="L14" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="44" t="s">
+      <c r="O14" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="46" t="s">
+      <c r="Q14" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="30" t="s">
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="83" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="29"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="40" t="s">
+    <row r="15" spans="2:22" ht="18.75">
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="28"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="16" t="s">
+      <c r="I15" s="70"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="8" t="s">
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="V15" s="28"/>
-    </row>
-    <row r="16" ht="364.5" customHeight="1">
-      <c r="B16" s="42" t="s">
+      <c r="V15" s="70"/>
+    </row>
+    <row r="16" spans="2:22" ht="364.5" customHeight="1">
+      <c r="B16" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="45" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="49"/>
-      <c r="K16" s="11" t="s">
+      <c r="J16" s="15"/>
+      <c r="K16" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="55" t="s">
+      <c r="L16" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="56" t="s">
+      <c r="M16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="48" t="s">
+      <c r="Q16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="48" t="s">
+      <c r="S16" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="T16" s="48" t="s">
+      <c r="T16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="U16" s="48" t="s">
+      <c r="U16" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="V16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="58"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="91"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="K17" s="11" t="s">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="K17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="58"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="K18" s="11" t="s">
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="91"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="K18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="58"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="K19" s="11" t="s">
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="91"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="K19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="58"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="K20" s="11" t="s">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="91"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="K20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="58"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="K21" s="11" t="s">
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="91"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="K21" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-    </row>
-    <row r="24">
-      <c r="K24" s="65"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25">
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26">
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27">
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="K24" s="25"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="K13:V13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D6:H10"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B14:C15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="D14:E15"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D21:E21"/>
@@ -4022,596 +4773,603 @@
     <mergeCell ref="P14:P15"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="L14:L15"/>
-    <mergeCell ref="D6:H10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B14:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D14:E15"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I14:I15"/>
     <mergeCell ref="Q15:T15"/>
     <mergeCell ref="N14:N15"/>
-    <mergeCell ref="K13:V13"/>
-    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.71"/>
-    <col customWidth="1" min="3" max="3" width="167.43"/>
-    <col customWidth="1" min="4" max="13" width="10.71"/>
+    <col min="1" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="167.42578125" customWidth="1"/>
+    <col min="4" max="13" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="55"/>
+    </row>
+    <row r="2" spans="1:3" ht="18.75">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="5" spans="1:3" ht="45">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
-    <col customWidth="1" min="3" max="3" width="12.71"/>
-    <col customWidth="1" min="4" max="6" width="20.71"/>
-    <col customWidth="1" min="7" max="8" width="40.71"/>
-    <col customWidth="1" min="9" max="9" width="20.71"/>
-    <col customWidth="1" min="10" max="10" width="6.71"/>
-    <col customWidth="1" min="11" max="19" width="10.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="8" width="40.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="19" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="3" ht="21.0" customHeight="1">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:10" ht="28.5">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="3" spans="2:10" ht="21" customHeight="1">
+      <c r="B3" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4">
-      <c r="B4" s="27" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4" spans="2:10" ht="18.75">
+      <c r="B4" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="30" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="29"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="40" t="s">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.75">
+      <c r="B5" s="66"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6">
-      <c r="B6" s="42" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="2:10" ht="120">
+      <c r="B6" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="43" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="49"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="42" t="s">
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="2:10" ht="75">
+      <c r="B7" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="43" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="55"/>
+      <c r="F7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="42" t="s">
+    <row r="8" spans="2:10" ht="120">
+      <c r="B8" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="43" t="s">
+      <c r="C8" s="55"/>
+      <c r="D8" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="55"/>
+      <c r="F8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="11">
-        <v>2010.0</v>
-      </c>
-      <c r="I8" s="48" t="s">
+      <c r="H8" s="8">
+        <v>2010</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="53" t="s">
+    <row r="9" spans="2:10" ht="45">
+      <c r="B9" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="48" t="s">
+      <c r="H9" s="8"/>
+      <c r="I9" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="53" t="s">
+    <row r="10" spans="2:10" ht="45">
+      <c r="B10" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="48" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="53" t="s">
+    <row r="11" spans="2:10" ht="45">
+      <c r="B11" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="55"/>
+      <c r="F11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="48" t="s">
+      <c r="H11" s="8"/>
+      <c r="I11" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="42" t="s">
+    <row r="12" spans="2:10" ht="45">
+      <c r="B12" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="60" t="s">
+      <c r="E12" s="98"/>
+      <c r="F12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="11">
-        <v>2010.0</v>
-      </c>
-      <c r="I12" s="48" t="s">
+      <c r="H12" s="8">
+        <v>2010</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="42" t="s">
+    <row r="13" spans="2:10" ht="30">
+      <c r="B13" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="45" t="s">
+      <c r="E13" s="98"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="42" t="s">
+    <row r="14" spans="2:10" ht="105">
+      <c r="B14" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="55"/>
+      <c r="D14" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="98"/>
+      <c r="F14" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="48" t="s">
+      <c r="H14" s="8"/>
+      <c r="I14" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="2:10" ht="105">
+      <c r="B15" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="55"/>
+      <c r="D15" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="98"/>
+      <c r="F15" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="48" t="s">
+      <c r="H15" s="8"/>
+      <c r="I15" s="14" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:10" ht="105">
+      <c r="B16" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="98"/>
+      <c r="F16" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="48" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:9" ht="105">
+      <c r="B17" s="72" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="55"/>
+      <c r="D17" s="80" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="98"/>
+      <c r="F17" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="48" t="s">
+      <c r="H17" s="8"/>
+      <c r="I17" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="53" t="s">
+    <row r="18" spans="2:9" ht="135">
+      <c r="B18" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="55"/>
+      <c r="D18" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="98"/>
+      <c r="F18" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="48"/>
-    </row>
-    <row r="19" ht="44.25" customHeight="1">
-      <c r="B19" s="53" t="s">
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="2:9" ht="44.25" customHeight="1">
+      <c r="B19" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="68" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="69" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="48" t="s">
+      <c r="H19" s="8"/>
+      <c r="I19" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="20" ht="223.5" customHeight="1">
-      <c r="B20" s="42" t="s">
+    <row r="20" spans="2:9" ht="223.5" customHeight="1">
+      <c r="B20" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="52" t="s">
+      <c r="E20" s="98"/>
+      <c r="F20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="14" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -4619,16 +5377,8 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D18:E18"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
@@ -4636,15 +5386,14 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:I5"/>
   </mergeCells>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>